--- a/excel/fon_is_closeness_centrality.xlsx
+++ b/excel/fon_is_closeness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2604166666666667</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2604166666666667</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -485,67 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2155172413793104</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Elena Milovanovic</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
   </sheetData>
